--- a/Stocks/THERMAX.xlsx
+++ b/Stocks/THERMAX.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>1034.8333333333333</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>877.48987092980633</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>880.4293758494855</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>33.671429290092462</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>15.350000000000023</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>18.450000000000045</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>0.83197831978319703</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>913.44095938268947</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>-17.332792098161917</v>
       </c>
       <c r="Y67">
         <v>-14.810444182439776</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>894.55</v>
+      </c>
+      <c r="D83">
+        <v>903.6</v>
+      </c>
+      <c r="E83">
+        <v>880</v>
+      </c>
+      <c r="F83">
+        <v>892</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>891.86666666666667</v>
+      </c>
+      <c r="H83">
+        <v>884.35419779262679</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>895.4329464897022</v>
+      </c>
+      <c r="K83">
+        <v>873.1172490922055</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>59.619570029926386</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>12</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>23.600000000000023</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.50847457627118597</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>882.70996581181305</v>
+      </c>
+      <c r="W83">
+        <v>891.6844027603421</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-8.9744369485290463</v>
+      </c>
+      <c r="Y83">
+        <v>-11.05586387974982</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>897.6</v>
+      </c>
+      <c r="D84">
+        <v>899</v>
+      </c>
+      <c r="E84">
+        <v>885.05</v>
+      </c>
+      <c r="F84">
+        <v>890</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>891.35</v>
+      </c>
+      <c r="H84">
+        <v>887.85209889631346</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>896.22562504754615</v>
+      </c>
+      <c r="K84">
+        <v>875.76897151615981</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>57.46554905737181</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>4.9500000000000455</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>13.950000000000045</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.35483870967742148</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>883.83150953307256</v>
+      </c>
+      <c r="W84">
+        <v>891.55963218550198</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-7.7281226524294198</v>
+      </c>
+      <c r="Y84">
+        <v>-10.39031563428574</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>892.35</v>
+      </c>
+      <c r="D85">
+        <v>900.75</v>
+      </c>
+      <c r="E85">
+        <v>881.65</v>
+      </c>
+      <c r="F85">
+        <v>882</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>888.13333333333333</v>
+      </c>
+      <c r="H85">
+        <v>887.99271611482345</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>897.23104170364695</v>
+      </c>
+      <c r="K85">
+        <v>877.07586673479091</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>48.672924424736841</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>0.35000000000002274</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>19.100000000000023</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>1.83246073298441E-2</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>883.54973883567675</v>
+      </c>
+      <c r="W85">
+        <v>890.85151128287225</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-7.3017724471955034</v>
+      </c>
+      <c r="Y85">
+        <v>-9.7726069968676921</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>892.65</v>
+      </c>
+      <c r="D86">
+        <v>902.15</v>
+      </c>
+      <c r="E86">
+        <v>881.5</v>
+      </c>
+      <c r="F86">
+        <v>885.05</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>889.56666666666661</v>
+      </c>
+      <c r="H86">
+        <v>888.77969139074503</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>898.32414354728098</v>
+      </c>
+      <c r="K86">
+        <v>878.05900746039288</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>52.161202455003306</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>3.5499999999999545</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>20.649999999999977</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.17191283292978007</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>883.78054824557262</v>
+      </c>
+      <c r="W86">
+        <v>890.42176970636319</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-6.6412214607905753</v>
+      </c>
+      <c r="Y86">
+        <v>-9.146329889652268</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>888.75</v>
+      </c>
+      <c r="D87">
+        <v>890.4</v>
+      </c>
+      <c r="E87">
+        <v>880.85</v>
+      </c>
+      <c r="F87">
+        <v>886.05</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>885.76666666666677</v>
+      </c>
+      <c r="H87">
+        <v>887.27317902870595</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J87">
+        <v>896.56322275899629</v>
+      </c>
+      <c r="K87">
+        <v>878.67922802475005</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>53.457557368188681</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>5.1999999999999318</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>9.5499999999999545</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.54450261780104259</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>884.12969466933066</v>
+      </c>
+      <c r="W87">
+        <v>890.09793491329924</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-5.9682402439685802</v>
+      </c>
+      <c r="Y87">
+        <v>-8.5107119605155308</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>881.95</v>
+      </c>
+      <c r="D88">
+        <v>890.35</v>
+      </c>
+      <c r="E88">
+        <v>881</v>
+      </c>
+      <c r="F88">
+        <v>885.95</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>885.76666666666677</v>
+      </c>
+      <c r="H88">
+        <v>886.5199228476863</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>895.18250659033049</v>
+      </c>
+      <c r="K88">
+        <v>879.19495513036111</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>53.277091869082838</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>4.9500000000000455</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>9.3500000000000227</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.52941176470588591</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>884.40974164327974</v>
+      </c>
+      <c r="W88">
+        <v>889.7906804752771</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-5.380938831997355</v>
+      </c>
+      <c r="Y88">
+        <v>-7.884757334811896</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>882.35</v>
+      </c>
+      <c r="D89">
+        <v>892.75</v>
+      </c>
+      <c r="E89">
+        <v>882</v>
+      </c>
+      <c r="F89">
+        <v>886.95</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>887.23333333333323</v>
+      </c>
+      <c r="H89">
+        <v>886.87662809050971</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>894.641949570257</v>
+      </c>
+      <c r="K89">
+        <v>879.81829843472531</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>55.168889118843467</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>4.9500000000000455</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>10.75</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.46046511627907399</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>884.80055062123677</v>
+      </c>
+      <c r="W89">
+        <v>889.58025969933067</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-4.7797090780939016</v>
+      </c>
+      <c r="Y89">
+        <v>-7.2637476834682975</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>886.05</v>
+      </c>
+      <c r="D90">
+        <v>887.15</v>
+      </c>
+      <c r="E90">
+        <v>880</v>
+      </c>
+      <c r="F90">
+        <v>881</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>882.7166666666667</v>
+      </c>
+      <c r="H90">
+        <v>884.7966473785882</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>892.97707188797767</v>
+      </c>
+      <c r="K90">
+        <v>879.85867656034191</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>42.400351528445391</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>7.1499999999999773</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.13986013986014031</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>884.21585052566184</v>
+      </c>
+      <c r="W90">
+        <v>888.94468490678764</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-4.7288343811258073</v>
+      </c>
+      <c r="Y90">
+        <v>-6.7567650229997991</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>890</v>
+      </c>
+      <c r="D91">
+        <v>893</v>
+      </c>
+      <c r="E91">
+        <v>870</v>
+      </c>
+      <c r="F91">
+        <v>879.95</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>880.98333333333323</v>
+      </c>
+      <c r="H91">
+        <v>882.88999035596066</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>892.98216702398258</v>
+      </c>
+      <c r="K91">
+        <v>877.66785954693262</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>40.34079498741108</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>9.9500000000000455</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>23</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.43260869565217591</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>883.55956582940621</v>
+      </c>
+      <c r="W91">
+        <v>888.27841195072926</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-4.7188461213230539</v>
+      </c>
+      <c r="Y91">
+        <v>-6.3491812426644501</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>878.9</v>
+      </c>
+      <c r="D92">
+        <v>885</v>
+      </c>
+      <c r="E92">
+        <v>868.05</v>
+      </c>
+      <c r="F92">
+        <v>876.85</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>876.63333333333333</v>
+      </c>
+      <c r="H92">
+        <v>879.76166184464705</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>891.20835212976419</v>
+      </c>
+      <c r="K92">
+        <v>875.53055742539198</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>34.208527981392706</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>8.8000000000000682</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>16.950000000000045</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.51917404129793776</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>882.52732493257452</v>
+      </c>
+      <c r="W92">
+        <v>887.43186291734196</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-4.904537984767444</v>
+      </c>
+      <c r="Y92">
+        <v>-6.0602525910850487</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>890</v>
+      </c>
+      <c r="D93">
+        <v>890</v>
+      </c>
+      <c r="E93">
+        <v>873.1</v>
+      </c>
+      <c r="F93">
+        <v>881.05</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>881.38333333333321</v>
+      </c>
+      <c r="H93">
+        <v>880.57249758899013</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>890.93982943426101</v>
+      </c>
+      <c r="K93">
+        <v>874.99043355308265</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>47.678196763390481</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>7.9499999999999318</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>16.899999999999977</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.47041420118342853</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>882.30004417371686</v>
+      </c>
+      <c r="W93">
+        <v>886.95913233087219</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-4.6590881571553382</v>
+      </c>
+      <c r="Y93">
+        <v>-5.7800197042991064</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>887</v>
+      </c>
+      <c r="D94">
+        <v>894</v>
+      </c>
+      <c r="E94">
+        <v>870.2</v>
+      </c>
+      <c r="F94">
+        <v>892.05</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>885.41666666666663</v>
+      </c>
+      <c r="H94">
+        <v>882.99458212782838</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>891.61986733775859</v>
+      </c>
+      <c r="K94">
+        <v>873.92589276350873</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>68.674381216827513</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>21.849999999999909</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>23.799999999999955</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.91806722689075426</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V94">
+        <v>883.80003737776042</v>
+      </c>
+      <c r="W94">
+        <v>887.3362336396965</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-3.5361962619360838</v>
+      </c>
+      <c r="Y94">
+        <v>-5.3312550158265015</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>892</v>
+      </c>
+      <c r="D95">
+        <v>924</v>
+      </c>
+      <c r="E95">
+        <v>890</v>
+      </c>
+      <c r="F95">
+        <v>898</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>904</v>
+      </c>
+      <c r="H95">
+        <v>893.49729106391419</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>898.81545237381226</v>
+      </c>
+      <c r="K95">
+        <v>877.49791659384016</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>75.359891796439328</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>34</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>885.9846470119511</v>
+      </c>
+      <c r="W95">
+        <v>888.12614225897823</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-2.1414952470271373</v>
+      </c>
+      <c r="Y95">
+        <v>-4.6933030620666285</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>930</v>
+      </c>
+      <c r="D96">
+        <v>959</v>
+      </c>
+      <c r="E96">
+        <v>906.7</v>
+      </c>
+      <c r="F96">
+        <v>951</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>938.9</v>
+      </c>
+      <c r="H96">
+        <v>916.19864553195703</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>912.18979629074283</v>
+      </c>
+      <c r="K96">
+        <v>883.98726846187571</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>92.702068670550091</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>44.299999999999955</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>52.299999999999955</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.84703632887189284</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V96">
+        <v>895.9870090101125</v>
+      </c>
+      <c r="W96">
+        <v>892.78346505460945</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>3.2035439555030507</v>
+      </c>
+      <c r="Y96">
+        <v>-3.1139336585526927</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD96">
+        <f t="shared" si="35"/>
+        <v>912.65000000000009</v>
+      </c>
+      <c r="AE96">
+        <f t="shared" si="36"/>
+        <v>926.7</v>
+      </c>
+      <c r="AF96">
+        <f t="shared" si="37"/>
+        <v>932.85</v>
+      </c>
+      <c r="AG96">
+        <f t="shared" si="38"/>
+        <v>939</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>950</v>
+      </c>
+      <c r="D97">
+        <v>965</v>
+      </c>
+      <c r="E97">
+        <v>930.3</v>
+      </c>
+      <c r="F97">
+        <v>955</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>950.1</v>
+      </c>
+      <c r="H97">
+        <v>933.14932276597847</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>923.92539711502218</v>
+      </c>
+      <c r="K97">
+        <v>894.27898658145887</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>93.156465798233128</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>24.700000000000045</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>34.700000000000045</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.71181556195965456</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>905.06593070086444</v>
+      </c>
+      <c r="W97">
+        <v>897.39209727278649</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>7.6738334280779554</v>
+      </c>
+      <c r="Y97">
+        <v>-0.95638024122656295</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>964.75</v>
+      </c>
+      <c r="D98">
+        <v>969.8</v>
+      </c>
+      <c r="E98">
+        <v>941.25</v>
+      </c>
+      <c r="F98">
+        <v>948.25</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>953.1</v>
+      </c>
+      <c r="H98">
+        <v>943.12466138298919</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>934.11975331168389</v>
+      </c>
+      <c r="K98">
+        <v>904.71698956335695</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>82.341869271919663</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>28.549999999999955</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.24518388791593734</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>911.70963366996227</v>
+      </c>
+      <c r="W98">
+        <v>901.15934932665414</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>10.550284343308135</v>
+      </c>
+      <c r="Y98">
+        <v>1.3449526756803767</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>949</v>
+      </c>
+      <c r="D99">
+        <v>950.05</v>
+      </c>
+      <c r="E99">
+        <v>930</v>
+      </c>
+      <c r="F99">
+        <v>933</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>937.68333333333339</v>
+      </c>
+      <c r="H99">
+        <v>940.40399735816129</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>937.65980813130966</v>
+      </c>
+      <c r="K99">
+        <v>910.33543632705539</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>62.011486920214175</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>20.049999999999955</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.1496259351620951</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>914.98507464381419</v>
+      </c>
+      <c r="W99">
+        <v>903.51791604319828</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>11.467158600615903</v>
+      </c>
+      <c r="Y99">
+        <v>3.3693938606674823</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>939</v>
+      </c>
+      <c r="D100">
+        <v>946</v>
+      </c>
+      <c r="E100">
+        <v>912.6</v>
+      </c>
+      <c r="F100">
+        <v>916</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>924.86666666666667</v>
+      </c>
+      <c r="H100">
+        <v>932.63533201241398</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>939.51318410212969</v>
+      </c>
+      <c r="K100">
+        <v>910.83867269882091</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>46.137990711977253</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>3.3999999999999773</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>33.399999999999977</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.10179640718562813</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>915.14121700630426</v>
+      </c>
+      <c r="W100">
+        <v>904.44251485481323</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>10.698702151491034</v>
+      </c>
+      <c r="Y100">
+        <v>4.8352555188321924</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>920.8</v>
+      </c>
+      <c r="D101">
+        <v>940.95</v>
+      </c>
+      <c r="E101">
+        <v>910</v>
+      </c>
+      <c r="F101">
+        <v>927.5</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>926.15</v>
+      </c>
+      <c r="H101">
+        <v>929.39266600620704</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>939.83247652387865</v>
+      </c>
+      <c r="K101">
+        <v>910.65230098797178</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>55.722002712623684</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>17.5</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>30.950000000000045</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.56542810985460334</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>917.04256823610365</v>
+      </c>
+      <c r="W101">
+        <v>906.15047671741968</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>10.892091518683969</v>
+      </c>
+      <c r="Y101">
+        <v>6.0466227188025474</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>930.7</v>
+      </c>
+      <c r="D102">
+        <v>931.95</v>
+      </c>
+      <c r="E102">
+        <v>872.5</v>
+      </c>
+      <c r="F102">
+        <v>874</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>892.81666666666661</v>
+      </c>
+      <c r="H102">
+        <v>911.10466633643682</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>938.08081507412783</v>
+      </c>
+      <c r="K102">
+        <v>902.17401187953362</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>27.385333924990025</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>1.5</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>59.450000000000045</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>2.5231286795626556E-2</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>910.42063466131845</v>
+      </c>
+      <c r="W102">
+        <v>903.76895992353673</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>6.6516747377817182</v>
+      </c>
+      <c r="Y102">
+        <v>6.1676331225983816</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>881.75</v>
+      </c>
+      <c r="D103">
+        <v>881.9</v>
+      </c>
+      <c r="E103">
+        <v>838.3</v>
+      </c>
+      <c r="F103">
+        <v>840</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>853.4</v>
+      </c>
+      <c r="H103">
+        <v>882.25233316821846</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>925.59618950209938</v>
+      </c>
+      <c r="K103">
+        <v>887.97978701741499</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>19.505535565900988</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>1.7000000000000455</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>43.600000000000023</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>3.8990825688074417E-2</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V103">
+        <v>899.58669086726945</v>
+      </c>
+      <c r="W103">
+        <v>899.04533326253397</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>0.54135760473548089</v>
+      </c>
+      <c r="Y103">
+        <v>5.0423780190258016</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD103">
+        <f t="shared" si="35"/>
+        <v>876.95</v>
+      </c>
+      <c r="AE103">
+        <f t="shared" si="36"/>
+        <v>865.25</v>
+      </c>
+      <c r="AF103">
+        <f t="shared" si="37"/>
+        <v>860.1</v>
+      </c>
+      <c r="AG103">
+        <f t="shared" si="38"/>
+        <v>854.95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>846</v>
+      </c>
+      <c r="D104">
+        <v>881</v>
+      </c>
+      <c r="E104">
+        <v>833.6</v>
+      </c>
+      <c r="F104">
+        <v>879</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>864.5333333333333</v>
+      </c>
+      <c r="H104">
+        <v>873.39283325077588</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J104">
+        <v>915.68592516829949</v>
+      </c>
+      <c r="K104">
+        <v>875.89538990243386</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>43.015405578969954</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>45.399999999999977</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>47.399999999999977</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.95780590717299574</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>896.41950765692036</v>
+      </c>
+      <c r="W104">
+        <v>897.56049376160558</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-1.1409861046852257</v>
+      </c>
+      <c r="Y104">
+        <v>3.805705194283596</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
